--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/59.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/59.xlsx
@@ -479,13 +479,13 @@
         <v>-17.83190623160143</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.013922297339073</v>
+        <v>-9.010596852417274</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.705942866418841</v>
+        <v>-1.702198467806107</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.636245453909922</v>
+        <v>-7.624383827535318</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-16.96011188470908</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.681158419364801</v>
+        <v>-9.678592328007822</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.72452084415125</v>
+        <v>-1.721588168314703</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.528155401648632</v>
+        <v>-7.51896460505374</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-16.00036302521413</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.21131813063766</v>
+        <v>-10.20723333215104</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.720449137967473</v>
+        <v>-1.717176062257042</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.337020872462273</v>
+        <v>-7.327646783627597</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-15.02458882927631</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.8651608268563</v>
+        <v>-10.86148188975777</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.724560121059775</v>
+        <v>-1.72171909134312</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.92391944089729</v>
+        <v>-6.915553459381427</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-14.03644058938126</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.46358380514591</v>
+        <v>-11.45851708394616</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.779259762332506</v>
+        <v>-1.776287809587435</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.679014823939962</v>
+        <v>-6.671015426903668</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.06916628390839</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.26612887704088</v>
+        <v>-12.26149420183491</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.559335259197192</v>
+        <v>-1.556022906578235</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.305609254591094</v>
+        <v>-6.297780057491741</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.14474982275064</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.90450956360344</v>
+        <v>-12.89962613464348</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.466550108957879</v>
+        <v>-1.463486510092916</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.620986554391553</v>
+        <v>-5.611730296282453</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-11.28448229654215</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.51542259880406</v>
+        <v>-13.51032969299863</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.351010536379647</v>
+        <v>-1.347462522309539</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.245355293559591</v>
+        <v>-5.237814127122757</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.4999304854101</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.14510999627972</v>
+        <v>-14.13934938302936</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.275991641096556</v>
+        <v>-1.272875673020226</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.833563092278781</v>
+        <v>-4.824974541614608</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.80382444824753</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.99017886780461</v>
+        <v>-14.98430042382868</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.172038756533252</v>
+        <v>-1.169695234324583</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.267229348254236</v>
+        <v>-4.258824089829848</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-9.200634161537733</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.77385793130465</v>
+        <v>-15.76818896417418</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9288885081567149</v>
+        <v>-0.926112939954269</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.754901353451812</v>
+        <v>-3.747478017740553</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.697337799179993</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.53829130962735</v>
+        <v>-16.53232121953153</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8416937712308192</v>
+        <v>-0.8389312953312151</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.29159094048881</v>
+        <v>-3.284913866039529</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-8.312185083624284</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.27761365109962</v>
+        <v>-17.27215416081463</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6522088722025179</v>
+        <v>-0.6491321810347123</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.702895543210597</v>
+        <v>-2.695799515070382</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-8.052228604312306</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.03403454008319</v>
+        <v>-18.02794661926179</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4744023073090362</v>
+        <v>-0.4715350929866982</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.423204677602803</v>
+        <v>-2.416082464856904</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.920857149984035</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.90047004984578</v>
+        <v>-18.89417265217891</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.314348905068935</v>
+        <v>-0.3116649829863811</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.848884628844806</v>
+        <v>-1.84110780095682</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-7.91713325514152</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.73613864793031</v>
+        <v>-19.73050895770837</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0740920556204199</v>
+        <v>-0.0718270872288013</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.581435066394026</v>
+        <v>-1.574129561408342</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-8.030638609807498</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.46663677728726</v>
+        <v>-20.45994661053514</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02480720004597882</v>
+        <v>0.0261033380273097</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.137723830785087</v>
+        <v>-1.130313587376671</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-8.249346699960666</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.1730974386268</v>
+        <v>-21.16563482600701</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3062524342345641</v>
+        <v>0.3082031873579813</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.7516056353769022</v>
+        <v>-0.7438288074889169</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-8.564402178134809</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.82421693585436</v>
+        <v>-21.81705544619994</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4588432238548814</v>
+        <v>0.4607677923726152</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.5208799823971637</v>
+        <v>-0.513365000566013</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-8.960012006086982</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.44322101421117</v>
+        <v>-22.43616426297948</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6454085393494779</v>
+        <v>0.6472021848387943</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1691683588570346</v>
+        <v>-0.1610511310951644</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-9.415784057662886</v>
       </c>
       <c r="E22" t="n">
-        <v>-22.89394972414327</v>
+        <v>-22.88676204988317</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8095467400761976</v>
+        <v>0.810960708783104</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0615365371952046</v>
+        <v>-0.05347167864470134</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-9.909440409281812</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.33974263590405</v>
+        <v>-23.33246331552404</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8865687576940721</v>
+        <v>0.887720880344144</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09321448239399753</v>
+        <v>0.1022219867491051</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.41549822005014</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.84007808130345</v>
+        <v>-23.83346646836838</v>
       </c>
       <c r="F24" t="n">
-        <v>1.029706904662663</v>
+        <v>1.030544812044534</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01739695663756187</v>
+        <v>0.02430969253799323</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.90875213659467</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.09679195542401</v>
+        <v>-24.0904814654543</v>
       </c>
       <c r="F25" t="n">
-        <v>1.08672388353838</v>
+        <v>1.087627252434459</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2247397567419776</v>
+        <v>0.2327915229896391</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-11.37300324373939</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.35736805888289</v>
+        <v>-24.35054696910235</v>
       </c>
       <c r="F26" t="n">
-        <v>1.224965509244166</v>
+        <v>1.225855785837403</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1195300111058669</v>
+        <v>0.1274770389307947</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-11.79465219446246</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.4119367771272</v>
+        <v>-24.40565247176317</v>
       </c>
       <c r="F27" t="n">
-        <v>1.194447351320102</v>
+        <v>1.195376904821865</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.08436951335117486</v>
+        <v>-0.07637011631488023</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-12.16088883350313</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.49035967114914</v>
+        <v>-24.4836956890027</v>
       </c>
       <c r="F28" t="n">
-        <v>1.120803147835393</v>
+        <v>1.121654147520105</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.4471048558840373</v>
+        <v>-0.4390792742420592</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-12.46197320674552</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.29479994360228</v>
+        <v>-24.28767773085638</v>
       </c>
       <c r="F29" t="n">
-        <v>1.144434754464709</v>
+        <v>1.145966553897191</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.5092147405651858</v>
+        <v>-0.5020008816993947</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-12.69096807785789</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.03843956165844</v>
+        <v>-24.03153991806085</v>
       </c>
       <c r="F30" t="n">
-        <v>1.030112766050757</v>
+        <v>1.031788580814498</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.8278290225214314</v>
+        <v>-0.8203925945073309</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-12.83934914455492</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.80819832388385</v>
+        <v>-23.8008404496868</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9648476363847522</v>
+        <v>0.9666674664797522</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.06159208976045</v>
+        <v>-1.055320876699263</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-12.90827888532752</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.46457774349991</v>
+        <v>-23.45746862305685</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9362147700698973</v>
+        <v>0.9378644002279548</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.308015413847418</v>
+        <v>-1.301587093152131</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-12.90511508451296</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.12512051541963</v>
+        <v>-23.11786737964531</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9036803975082081</v>
+        <v>0.905644242934467</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.597289845135356</v>
+        <v>-1.591280478131003</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-12.83539516123261</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.66241234838735</v>
+        <v>-22.654334397534</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8300231017206572</v>
+        <v>0.8315025319417723</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.84990582846646</v>
+        <v>-1.84497003029513</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-12.70629711481883</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.31322753929567</v>
+        <v>-22.30597440352135</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7505135465628547</v>
+        <v>0.7524250227777468</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.15664539174526</v>
+        <v>-2.153477054457563</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-12.52662801736692</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.73131395488947</v>
+        <v>-21.72353712700149</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8000810051216297</v>
+        <v>0.8020972197592555</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.475953565752118</v>
+        <v>-2.474120643354276</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-12.30197740322978</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.27697176937305</v>
+        <v>-21.2686712493714</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8210679665769166</v>
+        <v>0.8232805657571682</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.655409760803657</v>
+        <v>-2.653485192285923</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-12.04111112305178</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.79686393186412</v>
+        <v>-20.78908710397613</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9158824237566967</v>
+        <v>0.9179510076056895</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.784251113069083</v>
+        <v>-2.782156344614407</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-11.75935845214843</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.29377910286795</v>
+        <v>-20.28559641359187</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9377334771995376</v>
+        <v>0.9399329840769476</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.859256916049332</v>
+        <v>-2.858091701096418</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-11.46809687623436</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.63141331749934</v>
+        <v>-19.62289022834938</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9528812715874146</v>
+        <v>0.9548451170136736</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.988687421942636</v>
+        <v>-2.988058991406233</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-11.17592865715689</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.09715571543703</v>
+        <v>-19.08841005713876</v>
       </c>
       <c r="F41" t="n">
-        <v>1.024509260434498</v>
+        <v>1.026577844283491</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.149185962479355</v>
+        <v>-3.148924116422521</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-10.89032971925795</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.34327473320476</v>
+        <v>-18.33494802859742</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9975391165805423</v>
+        <v>0.9993589466755421</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.364920928705318</v>
+        <v>-3.364816190282584</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.61538265184079</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.81223783764151</v>
+        <v>-17.80337434861766</v>
       </c>
       <c r="F43" t="n">
-        <v>1.113288166004242</v>
+        <v>1.115579319001544</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.395648563474849</v>
+        <v>-3.39520342517823</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.3530912920064</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.26393219463002</v>
+        <v>-17.25565785923405</v>
       </c>
       <c r="F44" t="n">
-        <v>1.046438867694389</v>
+        <v>1.047669544161511</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.536155157572253</v>
+        <v>-3.53522560407049</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.11070589916005</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.59958947153232</v>
+        <v>-16.59038558263458</v>
       </c>
       <c r="F45" t="n">
-        <v>1.075333580066079</v>
+        <v>1.077114133252553</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.721267227451418</v>
+        <v>-3.720939919880375</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.894657424359499</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.12411630922935</v>
+        <v>-16.11475531269751</v>
       </c>
       <c r="F46" t="n">
-        <v>0.884185958576878</v>
+        <v>0.8846049122678131</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.888259550197634</v>
+        <v>-3.888560673162993</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.705845186491365</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.53764660343423</v>
+        <v>-15.52918897579847</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9669816817479536</v>
+        <v>0.9677672199184572</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.844766920157419</v>
+        <v>-3.843889735867024</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.543112025773315</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.86844663598224</v>
+        <v>-14.85848339351969</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9570184392854001</v>
+        <v>0.9584062233866231</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.983610791793925</v>
+        <v>-3.982105176967126</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.402798072764401</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.37113551253928</v>
+        <v>-14.36180070061313</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8670088572485334</v>
+        <v>0.8675718262707276</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.096453349986762</v>
+        <v>-4.095602350302049</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.277150792293273</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.85422521174225</v>
+        <v>-13.84532244580988</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8570717993916632</v>
+        <v>0.8573074608428143</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.157725327286039</v>
+        <v>-4.155840035676831</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.162210443660346</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.38057187953429</v>
+        <v>-13.37242846716673</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9726244642727375</v>
+        <v>0.9733314486261907</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.243597741624921</v>
+        <v>-4.241070927176468</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.05933432985119</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.72610075277924</v>
+        <v>-12.71659574091615</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8562993535240014</v>
+        <v>0.8563386304325266</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.345207103979557</v>
+        <v>-4.342248243537327</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.964811580328186</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.33572755894749</v>
+        <v>-12.32715210058616</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8694571178799361</v>
+        <v>0.8694702101827778</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.529965681681995</v>
+        <v>-4.526744975182931</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.875595613116502</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.69085309017544</v>
+        <v>-11.68107313995267</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8518217859521311</v>
+        <v>0.8522145550373829</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.724569671121412</v>
+        <v>-4.722173779701375</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.789670239336727</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.31393878366498</v>
+        <v>-11.30456469483031</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8171140911187152</v>
+        <v>0.817938906197744</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.94217683665374</v>
+        <v>-4.939584560691078</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.702729413622039</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.92945712611201</v>
+        <v>-10.92047580636259</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7375521667495459</v>
+        <v>0.7381675049831071</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.134777703758372</v>
+        <v>-5.131661735682042</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.614206795147124</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.36946005666286</v>
+        <v>-10.36034781388502</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7211998805002301</v>
+        <v>0.7219985109735754</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.217455596203873</v>
+        <v>-5.214444366550276</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.529662171561307</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.14156234109694</v>
+        <v>-10.13315708267255</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6291740838257376</v>
+        <v>0.6296454067280397</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.352175392445234</v>
+        <v>-5.348928501340485</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.451303938357086</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.636984989576817</v>
+        <v>-9.628645192666637</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6601111954407363</v>
+        <v>0.6605956106458801</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.564323067692563</v>
+        <v>-5.560919068953714</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.380531549580425</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.514715973337937</v>
+        <v>-9.507475929866462</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6392289724081832</v>
+        <v>0.6392682493167083</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.620423585369359</v>
+        <v>-5.61708504814472</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.318801407782621</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.142056665251046</v>
+        <v>-9.135327221590398</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6679011156315633</v>
+        <v>0.6676130849690454</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.628580090039755</v>
+        <v>-5.624848783729862</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.265554179697798</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.869906966080086</v>
+        <v>-8.863635753018899</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6275375459705218</v>
+        <v>0.6271316845824283</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.698453710306047</v>
+        <v>-5.693386989106298</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.220014367931906</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.52732067762064</v>
+        <v>-8.519648588155389</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5870168686753796</v>
+        <v>0.5864669919560271</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.690506682481119</v>
+        <v>-5.685950561092199</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.18599552668142</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.212346055854395</v>
+        <v>-8.204464489543675</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4804848004522546</v>
+        <v>0.4798170930073266</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.612031419247813</v>
+        <v>-5.607278913316266</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.166353322631229</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.110540308957132</v>
+        <v>-8.103260988577132</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3387475298877282</v>
+        <v>0.3375692226319729</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.630098797169395</v>
+        <v>-5.62482259912418</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.160970801893075</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.907766722544479</v>
+        <v>-7.900251740713328</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2951632537276221</v>
+        <v>0.2942337002258596</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.608967820382849</v>
+        <v>-5.603207207132489</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.169320139892083</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.781072507945096</v>
+        <v>-7.77397647980488</v>
       </c>
       <c r="F67" t="n">
-        <v>0.196473474906691</v>
+        <v>0.1952951676509357</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.559505100246808</v>
+        <v>-5.553639748573715</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.189774854650716</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.628992318135606</v>
+        <v>-7.621385690184563</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1426641102271969</v>
+        <v>0.1416167259998588</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.503234382633069</v>
+        <v>-5.497277384840084</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.21826770370676</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.552899854019494</v>
+        <v>-7.544573149412156</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1395612344537078</v>
+        <v>0.1388149731917294</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.41023975554829</v>
+        <v>-5.40409946551552</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.256263876997469</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.559210343989206</v>
+        <v>-7.550805085564818</v>
       </c>
       <c r="F70" t="n">
-        <v>0.03099985929011525</v>
+        <v>0.03024050572529514</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.317873558999912</v>
+        <v>-5.312243868777969</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.308101376470033</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.642006067160281</v>
+        <v>-7.634399439209239</v>
       </c>
       <c r="F71" t="n">
-        <v>0.03467879638864028</v>
+        <v>0.03407655045792088</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.151876251269667</v>
+        <v>-5.146560776315926</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.37442665420151</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.639924391008448</v>
+        <v>-7.631440578767009</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.0361243773794143</v>
+        <v>-0.03668734640160852</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.078428432327583</v>
+        <v>-5.073466449550569</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.455668469238448</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.86499416916056</v>
+        <v>-7.857086418244157</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.06749353498818997</v>
+        <v>-0.06779465795354966</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.809551808867055</v>
+        <v>-4.804550549181516</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.551299138997505</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.988520046472245</v>
+        <v>-7.980481372527426</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.1359270019418921</v>
+        <v>-0.1371969553175396</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.67434759742055</v>
+        <v>-4.669437983854903</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.655238881321772</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.344002253230792</v>
+        <v>-8.336631286730899</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.2075026215776085</v>
+        <v>-0.2078953906628603</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.436957962294374</v>
+        <v>-4.432480394722503</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.766129863832443</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.599956773786536</v>
+        <v>-8.592323961229811</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.2047270533751626</v>
+        <v>-0.2055518684541913</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.161757756561292</v>
+        <v>-4.158615603879277</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.886362451980869</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.122850256982234</v>
+        <v>-9.115426921270975</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2689971680251959</v>
+        <v>-0.2694815832303397</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.931647441815114</v>
+        <v>-3.927575735631337</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.014875173259721</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.576511642750884</v>
+        <v>-9.569219230068041</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.209872328391961</v>
+        <v>-0.2098461437862775</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.849794364448643</v>
+        <v>-3.846102335047276</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.149912198755889</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.02492301508</v>
+        <v>-10.01814120220799</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2795495641156271</v>
+        <v>-0.2797066717497278</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.708803355146094</v>
+        <v>-3.705451725618612</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.289633742074619</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.61795196459883</v>
+        <v>-10.61068573652167</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3309761296779271</v>
+        <v>-0.3307928374381429</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.379675954007943</v>
+        <v>-3.376285047571936</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.428963599961897</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.29313511444948</v>
+        <v>-11.28541065577286</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3442648170622791</v>
+        <v>-0.3439636940969193</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.213979769243058</v>
+        <v>-3.210444847475792</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.56471721206961</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.14612482919362</v>
+        <v>-12.1388716934193</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.4046203331626362</v>
+        <v>-0.4040835487461255</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.877573047724906</v>
+        <v>-2.874221418197425</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.699645492113211</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.06570199619077</v>
+        <v>-13.05840958350793</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3778596661541481</v>
+        <v>-0.3769824818637525</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.744123204859192</v>
+        <v>-2.741111975205595</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.835576326471781</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.00456412527379</v>
+        <v>-13.99630288218066</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.436028767679937</v>
+        <v>-0.4354003371435342</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.461669863351794</v>
+        <v>-2.458383695338521</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.972972119122737</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.23224245504529</v>
+        <v>-15.22437398103741</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4779241367734605</v>
+        <v>-0.4765363526722375</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.259302138327234</v>
+        <v>-2.255950508799752</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-10.11263047655703</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.30048272081024</v>
+        <v>-16.29283681595067</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5735895936379528</v>
+        <v>-0.5722018095367299</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.011058984145266</v>
+        <v>-2.00698727796149</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-10.2539173415564</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.46327559769814</v>
+        <v>-17.4547917854567</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5065046338769484</v>
+        <v>-0.5052870497126679</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.951187883250053</v>
+        <v>-1.947548223060053</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-10.39402625784348</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.84730220800553</v>
+        <v>-18.83905405721524</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6602475461473377</v>
+        <v>-0.6589775927716903</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.922659755357932</v>
+        <v>-1.918889172139515</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-10.5375761199693</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.37658791834187</v>
+        <v>-20.36769824471234</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6454401516333456</v>
+        <v>-0.6443403981946405</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.910195883052609</v>
+        <v>-1.906464576742717</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-10.69165886811384</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.00923735961364</v>
+        <v>-22.00011202453295</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6722793724588839</v>
+        <v>-0.6705642807866179</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.923196539774443</v>
+        <v>-1.919334310436134</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-10.85851820066588</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.72315072462399</v>
+        <v>-23.71415631257173</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8230765165898848</v>
+        <v>-0.8219636708483381</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.969713491771096</v>
+        <v>-1.966060739278254</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-11.04102518659692</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.4550267291332</v>
+        <v>-25.44588830174968</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8685460843591994</v>
+        <v>-0.8672499463778686</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.027568378028683</v>
+        <v>-2.023287194999439</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-11.24126658570586</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.46621392246779</v>
+        <v>-27.45649943375923</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.043812742501386</v>
+        <v>-1.042516604520055</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.224725366522236</v>
+        <v>-2.220876229486768</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-11.4532659983633</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.52340746798821</v>
+        <v>-29.51417739448479</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.069146348500126</v>
+        <v>-1.067666918279011</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.290736757450219</v>
+        <v>-2.28725420489432</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-11.67877683965646</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.72349040672323</v>
+        <v>-31.71384137952887</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.292304650437347</v>
+        <v>-1.290000405137203</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.502805878880498</v>
+        <v>-2.499310234021757</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-11.92486736067033</v>
       </c>
       <c r="E96" t="n">
-        <v>-33.98553921480813</v>
+        <v>-33.97620440288198</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.426173446993996</v>
+        <v>-1.424235786173421</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.724589489019337</v>
+        <v>-2.721185490280488</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-12.18893135869173</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.20257668572318</v>
+        <v>-36.19332042761408</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.611717562866938</v>
+        <v>-1.610604717125391</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.797173215973867</v>
+        <v>-2.792918217550306</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-12.47453041917092</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.54262943413909</v>
+        <v>-38.53351719136125</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.885582353710164</v>
+        <v>-1.884692077116926</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.066743731485006</v>
+        <v>-3.062933871358064</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-12.7709877697158</v>
       </c>
       <c r="E99" t="n">
-        <v>-40.85461228526234</v>
+        <v>-40.84599754999248</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.904710208161926</v>
+        <v>-1.90413414683689</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.334874093683556</v>
+        <v>-3.332831694440247</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-13.08159309046013</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.18141562320242</v>
+        <v>-43.17252594957289</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.247296496621372</v>
+        <v>-2.247047742867379</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.363362944667152</v>
+        <v>-3.35925196157485</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-13.3800591229547</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.53332999799294</v>
+        <v>-45.5249116472657</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.281480499341118</v>
+        <v>-2.281048453347342</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.634268875068148</v>
+        <v>-3.630877968632141</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-13.69850722973018</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.07953414695466</v>
+        <v>-48.0719537036093</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.557872104632798</v>
+        <v>-2.558238689112366</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.645763916963183</v>
+        <v>-3.641364903208363</v>
       </c>
     </row>
   </sheetData>
